--- a/data/trans_bre/P62-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P62-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P62-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P62-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-49,89%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,65%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-35,97; -11,49</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-18,15; 2,59</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-10,7; 7,3</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-64,83; -27,56</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,2; 8,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,46; 42,66</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-33,86</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,37</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,68</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,06</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,1%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,84; -25,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,06; -10,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,66; -15,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,67; -7,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,91; -50,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,98; -27,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,86; -37,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,23; -17,15</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,78%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,41%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,1; -15,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,99; -6,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,15; -6,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,95; -10,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,67; -32,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,39; -16,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,49; -15,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,81; -20,01</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,62</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,72</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,12</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,16</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,94%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,57; -15,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,75; -2,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,82; -2,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,69; -7,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,12; -33,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,15; -5,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,05; -6,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,58; -17,18</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,99</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,44%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,3%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,12%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,25%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,98; -18,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,69; 1,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,47; -3,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,23; 4,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,5; -39,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,06; 5,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,77; -7,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,43; 10,93</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-31,25</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,3</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,55</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,31</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,84%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,58; -20,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,57; -10,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,12; -15,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,18; -15,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,14; -41,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,57; -24,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,71; -34,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,3; -27,63</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,28</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,95</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,25%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,33%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,61%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,03%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,51; -17,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,5; -5,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,32; -6,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,22; 24,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,45; -37,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,92; -14,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,02; -12,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,42; 44,64</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-37,86</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,76</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,6</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-27,79</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,51%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,68%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,58%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,46%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,54; -30,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,42; -13,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,21; -10,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,77; -20,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,11; -53,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,47; -29,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,59; -23,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,96; -33,32</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,92</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,95</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,17</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,7</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,84%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,95%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,88%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,84%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,87; -26,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,89; -11,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,13; -12,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,02; -6,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,51; -50,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,21; -27,86</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,94; -29,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,87; -11,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P62-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P62-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-8,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,65%</t>
+          <t>2,98%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,16; 1,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 7,3</t>
+          <t>-9,39; 8,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,22; 5,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-36,46; 42,66</t>
+          <t>-34,06; 57,05</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-17,06</t>
+          <t>-14,32</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-32,1%</t>
+          <t>-28,57%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,67; -7,82</t>
+          <t>-24,17; -4,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,23; -17,15</t>
+          <t>-41,92; -11,28</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-19,53</t>
+          <t>-18,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-34,41%</t>
+          <t>-33,16%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-28,95; -10,11</t>
+          <t>-27,86; -8,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-45,81; -20,01</t>
+          <t>-44,95; -18,07</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,72</t>
+          <t>-8,52</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-19,16</t>
+          <t>-17,44</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-19,31%</t>
+          <t>-19,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-33,94%</t>
+          <t>-31,73%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,75; -2,27</t>
+          <t>-17,07; -0,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,69; -7,48</t>
+          <t>-27,84; -3,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,15; -5,23</t>
+          <t>-35,34; -0,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,58; -17,18</t>
+          <t>-45,27; -12,24</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,33</t>
+          <t>-7,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-15,25%</t>
+          <t>-14,78%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 4,48</t>
+          <t>-20,88; 4,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-37,43; 10,93</t>
+          <t>-35,75; 11,15</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-25,31</t>
+          <t>-24,28</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-41,84%</t>
+          <t>-40,87%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,18; -15,43</t>
+          <t>-34,35; -14,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-52,3; -27,63</t>
+          <t>-51,62; -26,28</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>9,8</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,03%</t>
+          <t>17,84%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 24,29</t>
+          <t>-14,21; 35,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-27,42; 44,64</t>
+          <t>-25,13; 76,03</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-27,79</t>
+          <t>-27,92</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-41,46%</t>
+          <t>-41,22%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,77; -20,4</t>
+          <t>-34,64; -20,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-48,96; -33,32</t>
+          <t>-48,52; -33,12</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-15,7</t>
+          <t>-10,84</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-27,84%</t>
+          <t>-20,03%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-20,02; -6,14</t>
+          <t>-17,83; 4,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-34,87; -11,04</t>
+          <t>-32,62; 8,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P62-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P62-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-35,97; -11,49</t>
+          <t>-35,24; -11,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 1,78</t>
+          <t>-19,11; 3,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 2,59</t>
+          <t>-18,43; 2,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 8,51</t>
+          <t>-8,33; 9,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-64,83; -27,56</t>
+          <t>-64,83; -28,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,22; 5,13</t>
+          <t>-37,9; 7,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-43,2; 8,48</t>
+          <t>-42,22; 9,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-34,06; 57,05</t>
+          <t>-30,63; 66,09</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,84; -25,01</t>
+          <t>-41,37; -25,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,06; -10,22</t>
+          <t>-24,3; -10,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,66; -15,06</t>
+          <t>-29,98; -15,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,17; -4,81</t>
+          <t>-24,79; -4,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,91; -50,22</t>
+          <t>-69,08; -51,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,98; -27,77</t>
+          <t>-55,42; -27,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-60,86; -37,78</t>
+          <t>-60,57; -37,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,92; -11,28</t>
+          <t>-42,67; -11,69</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-35,1; -15,77</t>
+          <t>-34,68; -14,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-25,99; -6,63</t>
+          <t>-25,36; -6,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,15; -6,29</t>
+          <t>-25,83; -7,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,86; -8,95</t>
+          <t>-27,26; -9,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-59,67; -32,55</t>
+          <t>-60,59; -32,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-50,39; -16,37</t>
+          <t>-49,73; -15,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-49,49; -15,27</t>
+          <t>-47,93; -16,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-44,95; -18,07</t>
+          <t>-44,66; -19,03</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,57; -15,33</t>
+          <t>-34,42; -14,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,07; -0,32</t>
+          <t>-17,22; 0,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,82; -2,21</t>
+          <t>-18,96; -2,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,84; -3,27</t>
+          <t>-28,78; -6,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-60,12; -33,04</t>
+          <t>-59,33; -32,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,34; -0,81</t>
+          <t>-35,07; 2,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,05; -6,86</t>
+          <t>-45,31; -7,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,27; -12,24</t>
+          <t>-45,85; -14,43</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-41,98; -18,22</t>
+          <t>-41,81; -16,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,69; 1,61</t>
+          <t>-20,46; 2,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-27,47; -3,35</t>
+          <t>-27,56; -4,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 4,61</t>
+          <t>-20,44; 3,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-70,5; -39,9</t>
+          <t>-70,33; -38,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-47,06; 5,14</t>
+          <t>-47,32; 5,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-48,77; -7,13</t>
+          <t>-47,79; -9,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-35,75; 11,15</t>
+          <t>-35,2; 9,76</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-41,58; -20,29</t>
+          <t>-41,86; -19,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,57; -10,58</t>
+          <t>-30,82; -10,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,12; -15,22</t>
+          <t>-34,01; -13,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,35; -14,19</t>
+          <t>-32,72; -14,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-68,14; -41,56</t>
+          <t>-68,48; -41,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,57; -24,66</t>
+          <t>-57,75; -25,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-65,71; -34,56</t>
+          <t>-65,67; -32,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-51,62; -26,28</t>
+          <t>-50,8; -27,07</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-31,51; -17,06</t>
+          <t>-32,23; -17,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-19,5; -5,51</t>
+          <t>-19,17; -5,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,32; -6,05</t>
+          <t>-21,74; -5,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 35,55</t>
+          <t>-15,86; 36,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-57,45; -37,67</t>
+          <t>-57,75; -37,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-41,92; -14,92</t>
+          <t>-41,55; -15,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-38,02; -12,65</t>
+          <t>-38,41; -10,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-25,13; 76,03</t>
+          <t>-27,17; 79,83</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-44,54; -30,7</t>
+          <t>-44,01; -30,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-26,42; -13,14</t>
+          <t>-26,4; -13,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,21; -10,44</t>
+          <t>-23,49; -10,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,64; -20,74</t>
+          <t>-34,51; -20,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-68,11; -53,96</t>
+          <t>-67,45; -53,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-51,47; -29,52</t>
+          <t>-51,42; -30,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-44,59; -23,17</t>
+          <t>-45,57; -23,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-48,52; -33,12</t>
+          <t>-48,15; -33,15</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-32,87; -26,62</t>
+          <t>-32,9; -26,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-17,89; -11,86</t>
+          <t>-17,89; -12,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-19,13; -12,98</t>
+          <t>-19,16; -13,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-17,83; 4,71</t>
+          <t>-17,97; 7,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-58,51; -50,56</t>
+          <t>-58,44; -50,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-39,21; -27,86</t>
+          <t>-39,05; -28,52</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-39,94; -29,18</t>
+          <t>-39,92; -29,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-32,62; 8,71</t>
+          <t>-32,71; 13,63</t>
         </is>
       </c>
     </row>
